--- a/Stundenauflistungen/Stundenauflistung-Michael.xlsx
+++ b/Stundenauflistungen/Stundenauflistung-Michael.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\Stundenauflistungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324C3E66-104D-41B0-85EC-51A65C1F3AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C50B7D9-581A-45A7-8741-014D4E1F3DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Stundenauflistung Michael Schneider RPOSC - Redpitaya Oszi</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Absprache mit Prof. Münch bzgl Themenfindung</t>
+  </si>
+  <si>
+    <t>Donnerstag 29.10.20</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Sicherheitsunterweisung, Setup VM, Setup Redpitaya</t>
   </si>
 </sst>
 </file>
@@ -366,17 +375,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -412,6 +421,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
